--- a/Output_testing/R1_201907/Country/HKD/MN/EL SALVADOR_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/EL SALVADOR_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>421.076996</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>61.07912220523163</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>385.304531</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>64.85809616063035</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>386.168689</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>65.64000664306251</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>296.242498</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>73.0164824125582</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>65.01918370827423</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>36.033551</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>5.226829501313928</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>26.233421</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>4.415857081733356</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>21.934207</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>3.728322710260717</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>9.062865</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>2.233773099225923</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-43.84069556035588</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>20.093186</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>2.914607482348547</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>16.309995</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>2.745452334401435</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>13.881544</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>2.359550803395054</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>8.597493</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>2.119070358455431</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-2.217022543160174</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>1.977222</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.2868049912773494</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>3.993301</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.6721901234437893</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>4.736492</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.8050972934908569</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>8.265632999999999</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>2.037275038685236</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>205.021115513149</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>10.942205</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1.587216311360064</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>16.239215</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>2.733537976596363</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>13.968142</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.374270519045733</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>7.620675</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.878308770233641</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-20.35896948200293</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>13.894786</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.015501535756044</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>15.384688</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2.589695924715964</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>13.031263</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.215022124405054</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>7.155777</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.763722858793503</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-7.41636646561833</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>2.479907</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.3597217234603083</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>9.257289</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.558274278764569</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>18.14209</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.083747963105931</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>6.670059</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.644005329931513</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-20.46330964385168</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>11.813458</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.713595498454566</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>2.403105</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.4045133203328242</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>2.033004</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.3455650337963383</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>6.390278</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.575046201501979</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>294.8205992238622</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>30.146826</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>4.37293342273643</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>12.801216</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>2.154821528171958</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>25.188447</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>4.281470444146827</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>5.895282</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.453041874059781</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-64.03891882553982</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>21.234688</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>3.080187508846875</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>10.978006</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.847921608790988</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>10.679384</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.815255500178098</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>5.166042</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.27330216758953</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-10.2849186110565</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>119.703127</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>17.36347981921426</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>95.16837700000001</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>16.0196396624184</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>78.549733</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>13.35169096511288</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>44.653433</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>11.00597188896526</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-0.8320010716871273</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,527 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>10.42198</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>71.91606160890105</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>13.435462</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>77.35493339672746</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>12.548556</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>82.41462848694221</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>3.870781</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>70.79338063644856</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-55.19021273871591</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>1.856391</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>12.80988157012482</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>1.918847</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>11.04779886865895</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>1.40267</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>9.21225732584524</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>0.683696</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>12.50423394338696</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-25.38334435618884</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>0.995924</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>6.87229602645401</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>2.226167914253954</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>2.179418311695417</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>7.449655395415562</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>620.9054546741708</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>SYNTHETIC RUBBER; RECLAIMED RUBBER; WASTE, PAIRINGS AND SCRAP OF UNHARDENED RUBBER</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>1.929866997694161</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>4.172674659766528</v>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>0.880536</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>6.07607011574147</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>1.024283</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>5.897329265223644</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>3.083798000634042</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>3.599309108227274</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-51.62313240217695</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>PIGMENTS, PAINTS, VARNISHES AND RELATED MATERIALS</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.08982586313643648</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>1.050237430034771</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>319.8581560283688</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0.1120355704155852</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>0.09234127628122371</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>0.4305088267203344</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>817.6998050682262</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>846</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>CLOTHING ACCESSORIES, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED (OTHER THAN THOSE FOR BABIES)</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.1206745825089341</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>1.622371095041619</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.7987454721742436</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.2460303199033244</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>0.1454867675804885</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.2349586100565095</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.05363149801653434</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>2.125309320048272</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>1.258374959718955</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1820,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>421.076996</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>62.39064266443135</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>385.304531</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>66.81142519088105</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>386.168689</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>67.38397101083112</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>296.242498</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>74.01393669376841</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>65.01918370827423</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>36.033551</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>5.339062512860624</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>26.233421</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>4.548849296149045</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>21.934207</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>3.827379098137003</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>9.062865</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>2.264287942826385</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-43.84069556035588</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>1.977222</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.2929634067928334</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>3.993301</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0.6924344500536656</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>4.736492</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>0.8264876172315293</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>8.265632999999999</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>2.065105586558763</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>205.021115513149</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>18.236795</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>2.702131370267228</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>14.391148</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>2.495410852079748</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>12.478874</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>2.177483850493674</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>7.913797</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>1.97720203589876</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>0.4780511278042798</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>9.946281000000001</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1.473732523044367</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>15.852561</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>2.748818423148464</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>13.636301</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>2.379447473223204</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>7.213349</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.80220042647648</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-24.16801737712039</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>13.01425</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.92831104289434</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>14.360405</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2.490080046238164</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>12.56172</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>2.191939948622239</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>6.958977</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.738647515493845</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-4.960325345685934</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>2.479907</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.3674458423229132</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>9.257289</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.605204771116139</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>18.14209</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>3.165678889714151</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>6.670059</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.666463548959475</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-20.46330964385168</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>11.813458</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.750390649954356</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>2.403105</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.4166960339569228</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>2.033004</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.3547462197301649</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>6.390278</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.596562392434258</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>294.8205992238622</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>30.146826</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>4.466831164609117</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>12.801216</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>2.219718213322307</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>25.188447</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>4.395223203753466</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>5.895282</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.472891403784721</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-64.03891882553982</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>21.22959</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>3.145571418492748</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>10.937197</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.896499159423144</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>10.671218</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.862059418189286</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>5.166042</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.290696331980528</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-10.1575100302429</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>108.949209</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>16.14291740433013</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>81.170379</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>14.07486356363134</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>65.535826</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>11.43558327007416</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>40.473539</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>10.11200612181837</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>11.71337489358899</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2278,457 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>731.948211</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>88.79254947520636</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>732.948515</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>91.51695241635498</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>824.1028700000001</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>88.73097051531369</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>348.501262</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>85.42577818557578</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-28.69471381024201</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>7.816001</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>0.9481581416021283</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>0.598451</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>0.07472340903851896</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>46.277159</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>4.982651292989046</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>23.251708</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>5.699535314864306</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>18.13970210455118</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>15.347918</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>1.861854087319315</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>14.220032</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>1.775532612823488</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>19.157137</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>2.062644628703726</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>15.249742</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>3.738067030240077</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>45.47968372849465</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>3.448748</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.4183672052414088</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>11.148026</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.391957748871745</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>16.698684</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>1.797943547567721</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>10.512575</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>2.576877038996861</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>7.947608432021469</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>0.07678973977600365</v>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>3.976441</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0.9747183263687268</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>PRINTING AND BOOKBINDING MACHINERY, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.114129961404251</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>1.6006</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.3923443484225678</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, CAPES, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>3.875753</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.47016713045314</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>6.248932</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.7802501823706376</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>4.608752</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.4962232904544951</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>1.528204</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.3745984022471335</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-44.82450360416144</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>4.584262</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.556116272060003</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>3.158788</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.3944105829716472</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>2.476933</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.2666908185763356</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>1.330942</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.3262448905274455</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-39.81698320273517</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>1.723497</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.2151981888369479</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>0.951082</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.1024027848606395</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>0.552109</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.1353347781227262</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-4.899630353076545</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>28.067989</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>3.404924371011337</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>13.753041</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.71722347889221</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>7.441744</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.8012509014153931</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>0.52685</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.1291432087757278</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-90.66572836729176</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>28.930967</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>3.509612128436588</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>16.473964</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>2.056961640063825</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>5.991396</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>0.645092258714702</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>0.927527</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>0.2273584758586399</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-72.06807662309112</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
